--- a/biology/Microbiologie/Cryptophyta/Cryptophyta.xlsx
+++ b/biology/Microbiologie/Cryptophyta/Cryptophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptophytes (Embranchement Cryptophyta, Classe Cryptophyceae) sont des organismes vivants unicellulaires, photosynthétiques pour la plupart. Ce petit taxon (200 espèces) est relativement homogène et de nombreux caractères lui sont propres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot est composé de deux mots grecs : de κρυπτός, kruptós (« caché ») et de φυτόν, phyton (« végétal »).
 </t>
@@ -542,7 +556,9 @@
           <t>Caractères propres aux Cryptophytes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des trichocystes ou éjectosomes sont des structures spécifiques à ce groupe servant à neutraliser des proies[réf. souhaitée] .
 La face ventrale de la cellule est parcourue par un sillon terminé par une dépression profonde. Celle-ci est tapissée des trichocystes décrits ci-dessus.
@@ -578,7 +594,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptophytes se rencontrent dans tous les types de milieux aquatiques : des milieux océaniques aux eaux douces en passant par les eaux interstitielles des milieux terrestres humides.
 Certaines espèces sont devenues parasites intestinaux de métazoaires.
@@ -612,7 +630,9 @@
           <t>Liste non exhaustive des genres et espèces de Cryptophytes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Campylomonas
 Chilomonas
@@ -659,9 +679,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon de Cryptophyta a pour synonyme Cryptista Cavalier-Smith, 1989[1],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon de Cryptophyta a pour synonyme Cryptista Cavalier-Smith, 1989,.
 </t>
         </is>
       </c>
